--- a/artfynd/A 29141-2021.xlsx
+++ b/artfynd/A 29141-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99444431</v>
+        <v>99444487</v>
       </c>
       <c r="B2" t="n">
-        <v>89832</v>
+        <v>95519</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550928.0488311247</v>
+        <v>550994.8962430566</v>
       </c>
       <c r="R2" t="n">
-        <v>6897846.842891395</v>
+        <v>6898339.690472184</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99444461</v>
+        <v>99444491</v>
       </c>
       <c r="B3" t="n">
-        <v>73686</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,34 +812,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>308</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>551126.048227374</v>
+        <v>550941.4672128877</v>
       </c>
       <c r="R3" t="n">
-        <v>6898011.306861965</v>
+        <v>6898473.727714838</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99444458</v>
+        <v>99444489</v>
       </c>
       <c r="B4" t="n">
-        <v>95519</v>
+        <v>77532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,34 +928,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221945</v>
+        <v>6434</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551313.238550866</v>
+        <v>550942.4438726287</v>
       </c>
       <c r="R4" t="n">
-        <v>6898086.483303146</v>
+        <v>6898470.942975976</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99444454</v>
+        <v>99444492</v>
       </c>
       <c r="B5" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,38 +1040,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551548.162366013</v>
+        <v>550957.3930552211</v>
       </c>
       <c r="R5" t="n">
-        <v>6897820.807780899</v>
+        <v>6898471.169135012</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99444453</v>
+        <v>99444493</v>
       </c>
       <c r="B6" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,38 +1156,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551552.8460331853</v>
+        <v>550911.8473649246</v>
       </c>
       <c r="R6" t="n">
-        <v>6897789.611871685</v>
+        <v>6898516.671946124</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99444439</v>
+        <v>99444488</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550985.978226596</v>
+        <v>550978.7720391381</v>
       </c>
       <c r="R7" t="n">
-        <v>6897786.58463726</v>
+        <v>6898355.310865986</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99444443</v>
+        <v>99444431</v>
       </c>
       <c r="B8" t="n">
-        <v>78503</v>
+        <v>89832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551104.3147269068</v>
+        <v>550928.0488311247</v>
       </c>
       <c r="R8" t="n">
-        <v>6897842.045609167</v>
+        <v>6897846.842891395</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99444457</v>
+        <v>99444439</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,34 +1508,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551386.375794223</v>
+        <v>550985.978226596</v>
       </c>
       <c r="R9" t="n">
-        <v>6898040.467256467</v>
+        <v>6897786.58463726</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99444487</v>
+        <v>99444434</v>
       </c>
       <c r="B11" t="n">
-        <v>95519</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550994.8962430566</v>
+        <v>550972.0619675611</v>
       </c>
       <c r="R11" t="n">
-        <v>6898339.690472184</v>
+        <v>6897841.441851288</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99444434</v>
+        <v>99444429</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550972.0619675611</v>
+        <v>550888.7667684777</v>
       </c>
       <c r="R12" t="n">
-        <v>6897841.441851288</v>
+        <v>6897879.382751619</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99444429</v>
+        <v>99444433</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>89832</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,21 +1972,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550888.7667684777</v>
+        <v>550946.4832114347</v>
       </c>
       <c r="R13" t="n">
-        <v>6897879.382751619</v>
+        <v>6897833.121462091</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99444491</v>
+        <v>99444430</v>
       </c>
       <c r="B14" t="n">
-        <v>78098</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550941.4672128877</v>
+        <v>550907.8654813259</v>
       </c>
       <c r="R14" t="n">
-        <v>6898473.727714838</v>
+        <v>6897852.604535836</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99444489</v>
+        <v>100350125</v>
       </c>
       <c r="B15" t="n">
-        <v>77532</v>
+        <v>89832</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2200,25 +2200,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6434</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2228,13 +2228,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550942.4438726287</v>
+        <v>550923.0148927205</v>
       </c>
       <c r="R15" t="n">
-        <v>6898470.942975976</v>
+        <v>6897839.766708536</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2304,10 +2304,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99444492</v>
+        <v>100350543</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>96251</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2316,25 +2316,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2344,13 +2344,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550957.3930552211</v>
+        <v>550962.5561077876</v>
       </c>
       <c r="R16" t="n">
-        <v>6898471.169135012</v>
+        <v>6897728.361384262</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2404,12 +2404,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99444446</v>
+        <v>100350442</v>
       </c>
       <c r="B17" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,41 +2432,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>551349.4519689478</v>
+        <v>550921.0295075715</v>
       </c>
       <c r="R17" t="n">
-        <v>6897826.173089495</v>
+        <v>6897785.602245361</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2536,10 +2536,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99444445</v>
+        <v>100349887</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,25 +2548,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2576,13 +2576,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>551179.3227036542</v>
+        <v>550865.3436591446</v>
       </c>
       <c r="R18" t="n">
-        <v>6897826.850765528</v>
+        <v>6897821.161793068</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2636,12 +2636,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2652,10 +2652,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99444493</v>
+        <v>100350270</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2668,21 +2668,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550911.8473649246</v>
+        <v>550969.9842672979</v>
       </c>
       <c r="R19" t="n">
-        <v>6898516.671946124</v>
+        <v>6897762.541829538</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2752,12 +2752,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2768,10 +2768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99444455</v>
+        <v>100350024</v>
       </c>
       <c r="B20" t="n">
-        <v>56540</v>
+        <v>78596</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2780,41 +2780,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>551135.7395652935</v>
+        <v>550919.1428988997</v>
       </c>
       <c r="R20" t="n">
-        <v>6898019.387011379</v>
+        <v>6897848.57494516</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2868,12 +2868,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2884,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99444447</v>
+        <v>100350271</v>
       </c>
       <c r="B21" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,41 +2896,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>551370.6513881155</v>
+        <v>550849.4711745192</v>
       </c>
       <c r="R21" t="n">
-        <v>6897784.495158071</v>
+        <v>6897819.988811161</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2984,12 +2984,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3000,10 +3000,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99444464</v>
+        <v>100350107</v>
       </c>
       <c r="B22" t="n">
-        <v>77532</v>
+        <v>78503</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,37 +3016,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6434</v>
+        <v>6456</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>551050.37994425</v>
+        <v>550979.4706880748</v>
       </c>
       <c r="R22" t="n">
-        <v>6898070.356475338</v>
+        <v>6897753.351693876</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3096,21 +3096,16 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Bränd hög stubbe av tall</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -3121,10 +3116,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99444463</v>
+        <v>100350072</v>
       </c>
       <c r="B23" t="n">
-        <v>78098</v>
+        <v>96354</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,41 +3128,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>551049.403084962</v>
+        <v>550884.2754670711</v>
       </c>
       <c r="R23" t="n">
-        <v>6898073.141517041</v>
+        <v>6897836.381274892</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3221,12 +3216,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3237,10 +3232,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99444433</v>
+        <v>100349930</v>
       </c>
       <c r="B24" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3249,25 +3244,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3277,13 +3272,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550946.4832114347</v>
+        <v>550985.1496367779</v>
       </c>
       <c r="R24" t="n">
-        <v>6897833.121462091</v>
+        <v>6897779.571886025</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3337,12 +3332,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3353,10 +3348,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99444488</v>
+        <v>100350037</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,25 +3360,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3393,13 +3388,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550978.7720391381</v>
+        <v>550912.3245662415</v>
       </c>
       <c r="R25" t="n">
-        <v>6898355.310865986</v>
+        <v>6897835.871738388</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3453,12 +3448,12 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3469,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99444462</v>
+        <v>100349886</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3481,41 +3476,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>551068.0776262876</v>
+        <v>550982.9192666291</v>
       </c>
       <c r="R26" t="n">
-        <v>6898074.357877791</v>
+        <v>6897772.537905298</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3569,12 +3564,12 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3585,10 +3580,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99444430</v>
+        <v>100349932</v>
       </c>
       <c r="B27" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3597,25 +3592,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3625,13 +3620,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550907.8654813259</v>
+        <v>550880.3450543437</v>
       </c>
       <c r="R27" t="n">
-        <v>6897852.604535836</v>
+        <v>6897818.12161694</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3685,12 +3680,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3701,10 +3696,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>100350125</v>
+        <v>100350362</v>
       </c>
       <c r="B28" t="n">
-        <v>89832</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3717,21 +3712,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3741,10 +3736,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550923.0148927205</v>
+        <v>550873.3173328126</v>
       </c>
       <c r="R28" t="n">
-        <v>6897839.766708536</v>
+        <v>6897850.215921486</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3817,10 +3812,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100350543</v>
+        <v>100350232</v>
       </c>
       <c r="B29" t="n">
-        <v>96251</v>
+        <v>78569</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3829,25 +3824,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3857,10 +3852,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550962.5561077876</v>
+        <v>550912.3245662415</v>
       </c>
       <c r="R29" t="n">
-        <v>6897728.361384262</v>
+        <v>6897835.871738388</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3933,10 +3928,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>100350442</v>
+        <v>100350364</v>
       </c>
       <c r="B30" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3945,25 +3940,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3973,10 +3968,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550921.0295075715</v>
+        <v>550895.024218668</v>
       </c>
       <c r="R30" t="n">
-        <v>6897785.602245361</v>
+        <v>6897867.343925986</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4049,10 +4044,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>100349887</v>
+        <v>100350444</v>
       </c>
       <c r="B31" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4061,25 +4056,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4089,10 +4084,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550865.3436591446</v>
+        <v>550958.472150169</v>
       </c>
       <c r="R31" t="n">
-        <v>6897821.161793068</v>
+        <v>6897751.167245432</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4165,10 +4160,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100350270</v>
+        <v>100350132</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4177,25 +4172,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4205,10 +4200,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550969.9842672979</v>
+        <v>550841.6828052746</v>
       </c>
       <c r="R32" t="n">
-        <v>6897762.541829538</v>
+        <v>6897809.604390962</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4281,10 +4276,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>100350024</v>
+        <v>99444461</v>
       </c>
       <c r="B33" t="n">
-        <v>78596</v>
+        <v>73686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4293,41 +4288,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550919.1428988997</v>
+        <v>551126.048227374</v>
       </c>
       <c r="R33" t="n">
-        <v>6897848.57494516</v>
+        <v>6898011.306861965</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4381,12 +4376,12 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4397,10 +4392,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100350271</v>
+        <v>99444458</v>
       </c>
       <c r="B34" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4409,41 +4404,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550849.4711745192</v>
+        <v>551313.238550866</v>
       </c>
       <c r="R34" t="n">
-        <v>6897819.988811161</v>
+        <v>6898086.483303146</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4497,12 +4492,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4513,10 +4508,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>100350107</v>
+        <v>99444454</v>
       </c>
       <c r="B35" t="n">
-        <v>78503</v>
+        <v>95519</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4529,37 +4524,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6456</v>
+        <v>221945</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550979.4706880748</v>
+        <v>551548.162366013</v>
       </c>
       <c r="R35" t="n">
-        <v>6897753.351693876</v>
+        <v>6897820.807780899</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4613,12 +4608,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4629,10 +4624,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100350072</v>
+        <v>99444453</v>
       </c>
       <c r="B36" t="n">
-        <v>96354</v>
+        <v>95519</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4645,37 +4640,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221952</v>
+        <v>221945</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550884.2754670711</v>
+        <v>551552.8460331853</v>
       </c>
       <c r="R36" t="n">
-        <v>6897836.381274892</v>
+        <v>6897789.611871685</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4729,12 +4724,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4745,10 +4740,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>100349930</v>
+        <v>99444443</v>
       </c>
       <c r="B37" t="n">
-        <v>89392</v>
+        <v>78503</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4757,25 +4752,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4785,13 +4780,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550985.1496367779</v>
+        <v>551104.3147269068</v>
       </c>
       <c r="R37" t="n">
-        <v>6897779.571886025</v>
+        <v>6897842.045609167</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4845,12 +4840,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4861,10 +4856,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100350037</v>
+        <v>99444457</v>
       </c>
       <c r="B38" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4873,41 +4868,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550912.3245662415</v>
+        <v>551386.375794223</v>
       </c>
       <c r="R38" t="n">
-        <v>6897835.871738388</v>
+        <v>6898040.467256467</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4961,12 +4956,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4977,10 +4972,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>100349886</v>
+        <v>99444446</v>
       </c>
       <c r="B39" t="n">
-        <v>89356</v>
+        <v>95519</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4993,37 +4988,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>221945</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550982.9192666291</v>
+        <v>551349.4519689478</v>
       </c>
       <c r="R39" t="n">
-        <v>6897772.537905298</v>
+        <v>6897826.173089495</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5077,12 +5072,12 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5093,10 +5088,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100349932</v>
+        <v>99444445</v>
       </c>
       <c r="B40" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5109,21 +5104,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5133,13 +5128,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550880.3450543437</v>
+        <v>551179.3227036542</v>
       </c>
       <c r="R40" t="n">
-        <v>6897818.12161694</v>
+        <v>6897826.850765528</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5193,12 +5188,12 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5209,10 +5204,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>100350362</v>
+        <v>99444455</v>
       </c>
       <c r="B41" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5221,41 +5216,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550873.3173328126</v>
+        <v>551135.7395652935</v>
       </c>
       <c r="R41" t="n">
-        <v>6897850.215921486</v>
+        <v>6898019.387011379</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5309,12 +5304,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5325,10 +5320,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>100350232</v>
+        <v>99444447</v>
       </c>
       <c r="B42" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5337,41 +5332,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550912.3245662415</v>
+        <v>551370.6513881155</v>
       </c>
       <c r="R42" t="n">
-        <v>6897835.871738388</v>
+        <v>6897784.495158071</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5425,12 +5420,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5441,10 +5436,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>100350364</v>
+        <v>99444464</v>
       </c>
       <c r="B43" t="n">
-        <v>96334</v>
+        <v>77532</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5453,41 +5448,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>6434</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550895.024218668</v>
+        <v>551050.37994425</v>
       </c>
       <c r="R43" t="n">
-        <v>6897867.343925986</v>
+        <v>6898070.356475338</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5537,16 +5532,21 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Bränd hög stubbe av tall</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -5557,10 +5557,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>100350444</v>
+        <v>99444463</v>
       </c>
       <c r="B44" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5573,37 +5573,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550958.472150169</v>
+        <v>551049.403084962</v>
       </c>
       <c r="R44" t="n">
-        <v>6897751.167245432</v>
+        <v>6898073.141517041</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5657,12 +5657,12 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr">
@@ -5673,10 +5673,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>100350132</v>
+        <v>99444462</v>
       </c>
       <c r="B45" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5685,41 +5685,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550841.6828052746</v>
+        <v>551068.0776262876</v>
       </c>
       <c r="R45" t="n">
-        <v>6897809.604390962</v>
+        <v>6898074.357877791</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5773,12 +5773,12 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">

--- a/artfynd/A 29141-2021.xlsx
+++ b/artfynd/A 29141-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99444487</v>
+        <v>99444431</v>
       </c>
       <c r="B2" t="n">
-        <v>95519</v>
+        <v>89832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550994.8962430566</v>
+        <v>550928.0488311247</v>
       </c>
       <c r="R2" t="n">
-        <v>6898339.690472184</v>
+        <v>6897846.842891395</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99444491</v>
+        <v>99444461</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>73686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,34 +812,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>308</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550941.4672128877</v>
+        <v>551126.048227374</v>
       </c>
       <c r="R3" t="n">
-        <v>6898473.727714838</v>
+        <v>6898011.306861965</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99444489</v>
+        <v>99444458</v>
       </c>
       <c r="B4" t="n">
-        <v>77532</v>
+        <v>95519</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,34 +928,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6434</v>
+        <v>221945</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550942.4438726287</v>
+        <v>551313.238550866</v>
       </c>
       <c r="R4" t="n">
-        <v>6898470.942975976</v>
+        <v>6898086.483303146</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99444492</v>
+        <v>99444454</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,38 +1040,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550957.3930552211</v>
+        <v>551548.162366013</v>
       </c>
       <c r="R5" t="n">
-        <v>6898471.169135012</v>
+        <v>6897820.807780899</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99444493</v>
+        <v>99444453</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,38 +1156,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550911.8473649246</v>
+        <v>551552.8460331853</v>
       </c>
       <c r="R6" t="n">
-        <v>6898516.671946124</v>
+        <v>6897789.611871685</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99444488</v>
+        <v>99444439</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550978.7720391381</v>
+        <v>550985.978226596</v>
       </c>
       <c r="R7" t="n">
-        <v>6898355.310865986</v>
+        <v>6897786.58463726</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99444431</v>
+        <v>99444443</v>
       </c>
       <c r="B8" t="n">
-        <v>89832</v>
+        <v>78503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550928.0488311247</v>
+        <v>551104.3147269068</v>
       </c>
       <c r="R8" t="n">
-        <v>6897846.842891395</v>
+        <v>6897842.045609167</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99444439</v>
+        <v>99444457</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,34 +1508,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550985.978226596</v>
+        <v>551386.375794223</v>
       </c>
       <c r="R9" t="n">
-        <v>6897786.58463726</v>
+        <v>6898040.467256467</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99444434</v>
+        <v>99444487</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>95519</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550972.0619675611</v>
+        <v>550994.8962430566</v>
       </c>
       <c r="R11" t="n">
-        <v>6897841.441851288</v>
+        <v>6898339.690472184</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99444429</v>
+        <v>99444434</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550888.7667684777</v>
+        <v>550972.0619675611</v>
       </c>
       <c r="R12" t="n">
-        <v>6897879.382751619</v>
+        <v>6897841.441851288</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99444433</v>
+        <v>99444429</v>
       </c>
       <c r="B13" t="n">
-        <v>89832</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,21 +1972,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550946.4832114347</v>
+        <v>550888.7667684777</v>
       </c>
       <c r="R13" t="n">
-        <v>6897833.121462091</v>
+        <v>6897879.382751619</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99444430</v>
+        <v>99444491</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>78098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,25 +2084,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550907.8654813259</v>
+        <v>550941.4672128877</v>
       </c>
       <c r="R14" t="n">
-        <v>6897852.604535836</v>
+        <v>6898473.727714838</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100350125</v>
+        <v>99444489</v>
       </c>
       <c r="B15" t="n">
-        <v>89832</v>
+        <v>77532</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2200,25 +2200,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>6434</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2228,13 +2228,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550923.0148927205</v>
+        <v>550942.4438726287</v>
       </c>
       <c r="R15" t="n">
-        <v>6897839.766708536</v>
+        <v>6898470.942975976</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2304,10 +2304,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100350543</v>
+        <v>99444492</v>
       </c>
       <c r="B16" t="n">
-        <v>96251</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2316,25 +2316,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2344,13 +2344,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550962.5561077876</v>
+        <v>550957.3930552211</v>
       </c>
       <c r="R16" t="n">
-        <v>6897728.361384262</v>
+        <v>6898471.169135012</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2404,12 +2404,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100350442</v>
+        <v>99444446</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,41 +2432,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550921.0295075715</v>
+        <v>551349.4519689478</v>
       </c>
       <c r="R17" t="n">
-        <v>6897785.602245361</v>
+        <v>6897826.173089495</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2536,10 +2536,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100349887</v>
+        <v>99444445</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,25 +2548,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2576,13 +2576,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550865.3436591446</v>
+        <v>551179.3227036542</v>
       </c>
       <c r="R18" t="n">
-        <v>6897821.161793068</v>
+        <v>6897826.850765528</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2636,12 +2636,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2652,10 +2652,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100350270</v>
+        <v>99444493</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2668,21 +2668,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550969.9842672979</v>
+        <v>550911.8473649246</v>
       </c>
       <c r="R19" t="n">
-        <v>6897762.541829538</v>
+        <v>6898516.671946124</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2752,12 +2752,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2768,10 +2768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100350024</v>
+        <v>99444455</v>
       </c>
       <c r="B20" t="n">
-        <v>78596</v>
+        <v>56540</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2780,41 +2780,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550919.1428988997</v>
+        <v>551135.7395652935</v>
       </c>
       <c r="R20" t="n">
-        <v>6897848.57494516</v>
+        <v>6898019.387011379</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2868,12 +2868,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2884,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100350271</v>
+        <v>99444447</v>
       </c>
       <c r="B21" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,41 +2896,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550849.4711745192</v>
+        <v>551370.6513881155</v>
       </c>
       <c r="R21" t="n">
-        <v>6897819.988811161</v>
+        <v>6897784.495158071</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2984,12 +2984,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3000,10 +3000,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100350107</v>
+        <v>99444464</v>
       </c>
       <c r="B22" t="n">
-        <v>78503</v>
+        <v>77532</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,37 +3016,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6456</v>
+        <v>6434</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550979.4706880748</v>
+        <v>551050.37994425</v>
       </c>
       <c r="R22" t="n">
-        <v>6897753.351693876</v>
+        <v>6898070.356475338</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3096,16 +3096,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Bränd hög stubbe av tall</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -3116,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100350072</v>
+        <v>99444463</v>
       </c>
       <c r="B23" t="n">
-        <v>96354</v>
+        <v>78098</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3128,41 +3133,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>6453</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550884.2754670711</v>
+        <v>551049.403084962</v>
       </c>
       <c r="R23" t="n">
-        <v>6897836.381274892</v>
+        <v>6898073.141517041</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3216,12 +3221,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3232,10 +3237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100349930</v>
+        <v>99444433</v>
       </c>
       <c r="B24" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3244,25 +3249,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3272,13 +3277,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550985.1496367779</v>
+        <v>550946.4832114347</v>
       </c>
       <c r="R24" t="n">
-        <v>6897779.571886025</v>
+        <v>6897833.121462091</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3332,12 +3337,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3348,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100350037</v>
+        <v>99444488</v>
       </c>
       <c r="B25" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3360,25 +3365,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3388,13 +3393,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550912.3245662415</v>
+        <v>550978.7720391381</v>
       </c>
       <c r="R25" t="n">
-        <v>6897835.871738388</v>
+        <v>6898355.310865986</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3448,12 +3453,12 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3464,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100349886</v>
+        <v>99444462</v>
       </c>
       <c r="B26" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3476,41 +3481,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Nyskogsberget, Hls</t>
+          <t>Hästskomyran, Hls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550982.9192666291</v>
+        <v>551068.0776262876</v>
       </c>
       <c r="R26" t="n">
-        <v>6897772.537905298</v>
+        <v>6898074.357877791</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3564,12 +3569,12 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3580,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>100349932</v>
+        <v>99444430</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3592,25 +3597,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3620,13 +3625,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550880.3450543437</v>
+        <v>550907.8654813259</v>
       </c>
       <c r="R27" t="n">
-        <v>6897818.12161694</v>
+        <v>6897852.604535836</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3680,12 +3685,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Ursula Zinko</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3696,10 +3701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>100350362</v>
+        <v>100350125</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>89832</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3712,21 +3717,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3736,10 +3741,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550873.3173328126</v>
+        <v>550923.0148927205</v>
       </c>
       <c r="R28" t="n">
-        <v>6897850.215921486</v>
+        <v>6897839.766708536</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3812,10 +3817,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100350232</v>
+        <v>100350543</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>96251</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3824,25 +3829,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3852,10 +3857,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550912.3245662415</v>
+        <v>550962.5561077876</v>
       </c>
       <c r="R29" t="n">
-        <v>6897835.871738388</v>
+        <v>6897728.361384262</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3928,10 +3933,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>100350364</v>
+        <v>100350442</v>
       </c>
       <c r="B30" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3940,25 +3945,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3968,10 +3973,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550895.024218668</v>
+        <v>550921.0295075715</v>
       </c>
       <c r="R30" t="n">
-        <v>6897867.343925986</v>
+        <v>6897785.602245361</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4044,10 +4049,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>100350444</v>
+        <v>100349887</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4056,25 +4061,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4084,10 +4089,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550958.472150169</v>
+        <v>550865.3436591446</v>
       </c>
       <c r="R31" t="n">
-        <v>6897751.167245432</v>
+        <v>6897821.161793068</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4160,10 +4165,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100350132</v>
+        <v>100350270</v>
       </c>
       <c r="B32" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4172,25 +4177,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4200,10 +4205,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550841.6828052746</v>
+        <v>550969.9842672979</v>
       </c>
       <c r="R32" t="n">
-        <v>6897809.604390962</v>
+        <v>6897762.541829538</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4276,10 +4281,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99444461</v>
+        <v>100350024</v>
       </c>
       <c r="B33" t="n">
-        <v>73686</v>
+        <v>78596</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4288,41 +4293,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>551126.048227374</v>
+        <v>550919.1428988997</v>
       </c>
       <c r="R33" t="n">
-        <v>6898011.306861965</v>
+        <v>6897848.57494516</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4376,12 +4381,12 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4392,10 +4397,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99444458</v>
+        <v>100350271</v>
       </c>
       <c r="B34" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4404,41 +4409,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>551313.238550866</v>
+        <v>550849.4711745192</v>
       </c>
       <c r="R34" t="n">
-        <v>6898086.483303146</v>
+        <v>6897819.988811161</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4492,12 +4497,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4508,10 +4513,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>99444454</v>
+        <v>100350107</v>
       </c>
       <c r="B35" t="n">
-        <v>95519</v>
+        <v>78503</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4524,37 +4529,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221945</v>
+        <v>6456</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>551548.162366013</v>
+        <v>550979.4706880748</v>
       </c>
       <c r="R35" t="n">
-        <v>6897820.807780899</v>
+        <v>6897753.351693876</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4608,12 +4613,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4624,10 +4629,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>99444453</v>
+        <v>100350072</v>
       </c>
       <c r="B36" t="n">
-        <v>95519</v>
+        <v>96354</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4640,37 +4645,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221945</v>
+        <v>221952</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>551552.8460331853</v>
+        <v>550884.2754670711</v>
       </c>
       <c r="R36" t="n">
-        <v>6897789.611871685</v>
+        <v>6897836.381274892</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4724,12 +4729,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4740,10 +4745,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99444443</v>
+        <v>100349930</v>
       </c>
       <c r="B37" t="n">
-        <v>78503</v>
+        <v>89392</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4752,25 +4757,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,13 +4785,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>551104.3147269068</v>
+        <v>550985.1496367779</v>
       </c>
       <c r="R37" t="n">
-        <v>6897842.045609167</v>
+        <v>6897779.571886025</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4840,12 +4845,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4856,10 +4861,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>99444457</v>
+        <v>100350037</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,41 +4873,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>551386.375794223</v>
+        <v>550912.3245662415</v>
       </c>
       <c r="R38" t="n">
-        <v>6898040.467256467</v>
+        <v>6897835.871738388</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4956,12 +4961,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4972,10 +4977,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>99444446</v>
+        <v>100349886</v>
       </c>
       <c r="B39" t="n">
-        <v>95519</v>
+        <v>89356</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4988,37 +4993,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221945</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>551349.4519689478</v>
+        <v>550982.9192666291</v>
       </c>
       <c r="R39" t="n">
-        <v>6897826.173089495</v>
+        <v>6897772.537905298</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5072,12 +5077,12 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5088,10 +5093,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>99444445</v>
+        <v>100349932</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5104,21 +5109,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5128,13 +5133,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>551179.3227036542</v>
+        <v>550880.3450543437</v>
       </c>
       <c r="R40" t="n">
-        <v>6897826.850765528</v>
+        <v>6897818.12161694</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5188,12 +5193,12 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5204,10 +5209,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99444455</v>
+        <v>100350362</v>
       </c>
       <c r="B41" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5216,41 +5221,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>551135.7395652935</v>
+        <v>550873.3173328126</v>
       </c>
       <c r="R41" t="n">
-        <v>6898019.387011379</v>
+        <v>6897850.215921486</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5304,12 +5309,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5320,10 +5325,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>99444447</v>
+        <v>100350232</v>
       </c>
       <c r="B42" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5332,41 +5337,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>551370.6513881155</v>
+        <v>550912.3245662415</v>
       </c>
       <c r="R42" t="n">
-        <v>6897784.495158071</v>
+        <v>6897835.871738388</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5420,12 +5425,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5436,10 +5441,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>99444464</v>
+        <v>100350364</v>
       </c>
       <c r="B43" t="n">
-        <v>77532</v>
+        <v>96334</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5448,41 +5453,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6434</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>551050.37994425</v>
+        <v>550895.024218668</v>
       </c>
       <c r="R43" t="n">
-        <v>6898070.356475338</v>
+        <v>6897867.343925986</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5532,21 +5537,16 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Bränd hög stubbe av tall</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -5557,10 +5557,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>99444463</v>
+        <v>100350444</v>
       </c>
       <c r="B44" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5573,37 +5573,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>551049.403084962</v>
+        <v>550958.472150169</v>
       </c>
       <c r="R44" t="n">
-        <v>6898073.141517041</v>
+        <v>6897751.167245432</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5657,12 +5657,12 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr">
@@ -5673,10 +5673,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>99444462</v>
+        <v>100350132</v>
       </c>
       <c r="B45" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5685,41 +5685,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Hästskomyran, Hls</t>
+          <t>Nyskogsberget, Hls</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>551068.0776262876</v>
+        <v>550841.6828052746</v>
       </c>
       <c r="R45" t="n">
-        <v>6898074.357877791</v>
+        <v>6897809.604390962</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5773,12 +5773,12 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Ursula Zinko</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
